--- a/Chinh Sua Bai Viet Website/Chinh Sua Bai Viet Website/bin/Debug/Form bài viết shopee.xlsx
+++ b/Chinh Sua Bai Viet Website/Chinh Sua Bai Viet Website/bin/Debug/Form bài viết shopee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuuy\Desktop\GITHUB\Chinh Sua Bai Viet Website\Chinh Sua Bai Viet Website\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuuy\Desktop\ANASA\Chinh Sua Bai Viet Website\Chinh Sua Bai Viet Website\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282D74D-B622-4955-A61E-4E036054885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA40E06-A5B8-4B8E-9C45-6105EC959452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15084" yWindow="1896" windowWidth="29136" windowHeight="23076" xr2:uid="{D3186402-8832-41AB-B6E5-E6CB61580D4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{D3186402-8832-41AB-B6E5-E6CB61580D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +54,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-</t>
+=&gt; Quý khách vui lòng QUAY VIDEO lại quá trình bóc hàng để xác định hàng còn nguyên vẹn hay có vấn đề để được đền bù
+=&gt; Shop chỉ nhận giải quyết đơn hàng Khi có Video QUAY LÚC MỞ HỘP VÀ KIỂM TRA HÀNG HÓA</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
